--- a/Test_cases.xlsx
+++ b/Test_cases.xlsx
@@ -243,6 +243,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">龍門大酒家
 </t>
@@ -562,6 +563,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -744,17 +746,17 @@
   <dimension ref="A1:G984"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.76"/>
   </cols>
   <sheetData>
@@ -762,7 +764,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>

--- a/Test_cases.xlsx
+++ b/Test_cases.xlsx
@@ -8,7 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Регистрация" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Авторизация" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Смена пароля" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -57,10 +59,10 @@
     <t xml:space="preserve">Название/заголовок</t>
   </si>
   <si>
-    <t xml:space="preserve">Предусловия:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тестовые данные:</t>
+    <t xml:space="preserve">Предусловия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестовые данные</t>
   </si>
   <si>
     <t xml:space="preserve">Шаги воспроизведения</t>
@@ -69,7 +71,7 @@
     <t xml:space="preserve">Ожидаемый результат</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-001</t>
+    <t xml:space="preserve">RTR-001</t>
   </si>
   <si>
     <t xml:space="preserve">Форма регистрации</t>
@@ -84,45 +86,198 @@
     <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Система отобразила форму регистрации, которая делится по вертикали на две половины;
-2. Правая часть содержит:
-2.1. Поле ввода имени (обязательное);
-2.2. Поле ввода фамилии (обязательное);
-2.3. Поле выбора региона (обязательное;
-2.4. Поле ввода email или мобильного телефона(обязательное);
-2.5. Поле ввода пароля(обязательное);
-2.6. Поле подтверждения пароля(обязательное);
-2.7. Кнопка "Зарегистрироваться";
-2.8. Ссылку на пользовательское соглашение;
-2.9. Левая часть содержит серый фон;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка, что ссылка "Пользовательское соглашение" ведет на соотвествующую страницу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Нажать на ссылку "Пользовательское соглашение"</t>
+    <t xml:space="preserve">1. Система отобразила форму «Регистрация», которая содержит шапку, тело и подвал;
+2. Шапка содержит логотип компании;
+3. Тело делится по вертикали на две половины;
+4. Правая часть тела содержит:
+4.1. Поле ввода имени (обязательное);
+4.2. Поле ввода фамилии (обязательное);
+4.3. Поле выбора региона (обязательное);
+4.4. Поле ввода email или мобильного телефона(обязательное);
+4.5. Поле ввода пароля(обязательное);
+4.6. Поле подтверждения пароля(обязательное);
+4.7. Кнопку "Зарегистрироваться";
+4.8. Ссылку на пользовательское соглашение;
+5. Левая часть содержит серый фон;
+6. Подвал содержит:
+6.1. Иконку копирайта, год, название компании, возрастное ограничение;
+6.2. Ссылки «Согласие на обработку файлов Cookies», «Пользовательское соглашение», «Политика конфиденциальности» и телефон службы поддержки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка, что ссылка "Пользовательское соглашение" ведет на соответствующую страницу</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Нажать на ссылку  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Пользовательское соглашение"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Совершен переход на страницу "Пользовательское соглашение"</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка, что иконки соцсетей ведут настраницы соотвествующи соцсетей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Нажать на иконку "В контакте";
-2. Повторить шаг 1 для остальных соцсетей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Совершен переход на страницу соцсети "В контакте" с формой согласия на использование данных для авторизации в Ростелеком либо с формой авторизации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-004</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Проверка, что ссылка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">«Согласие на обработку файлов Cookies»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ведет на соответствующую страницу</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Нажать на ссылку «Зарегистрироваться»;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Нажать на ссылку  «Согласие на обработку файлов Cookies»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Совершен переход на страницу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">«Согласие на обработку файлов Cookies»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Проверка, что ссылка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">«Политика конфиденциальности»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ведет на соответствующую страницу</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Нажать на ссылку «Зарегистрироваться»;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Нажать на ссылку  «Политика конфиденциальности»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Совершен переход на страницу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">«Политика конфиденциальности»</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Регистрация пользователя с валидными данными</t>
@@ -145,9 +300,6 @@
     <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя с указанными тестовыми данными</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-005</t>
-  </si>
-  <si>
     <t xml:space="preserve">Позитивная проверка поля "Имя" формы регистрации</t>
   </si>
   <si>
@@ -168,9 +320,6 @@
     <t xml:space="preserve">Поле "Имя" приняло введенные данные (ошибка не отобразилась)</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-006</t>
-  </si>
-  <si>
     <t xml:space="preserve">Позитивная проверка поля "Фамилия" формы регистрации</t>
   </si>
   <si>
@@ -189,9 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">Поле "Фамилия" приняло введенные данные (ошибка не отобразилась)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-007</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка регистрации с несовпадающим паролем в поле "Подтверждение пароля".</t>
@@ -213,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">Отображена ошибка о несовпадении пароля в поле "Подтверждение пароля"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-008</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка поля "Имя" формы регистрации</t>
@@ -275,9 +418,6 @@
     <t xml:space="preserve">Отображена ошибка о том, что в поле "Имя" введены невалидные данные</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Негативная проверка поля "Фамилия" формы регистрации</t>
   </si>
   <si>
@@ -290,7 +430,7 @@
     <t xml:space="preserve">Отображена ошибка о том, что в поле "Фамилия" введены невалидные данные</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-010</t>
+    <t xml:space="preserve">RTA-001</t>
   </si>
   <si>
     <t xml:space="preserve">Форма авторизации</t>
@@ -299,44 +439,66 @@
     <t xml:space="preserve">Проверка UI страницы с формой авторизации</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Система отображает форму «Авторизация», разделенную вертикально на два блока и содержащую:
-2. В правой части:
-2.1.1. Меню выбора типа аутентификации
-2.1.2. Таб выбора аутентификации по номеру, "Номер"
-2.1.3. Таб выбора аутентификации по логину и паролю, "Почта"
-2.1.4. Таб выбора аутентификации по почте и паролю, "Логин"
-2.1.5. Таб выбора аутентификации по лицевому счету и паролю, “Лицевой счет”
-2.2. Форма ввода "Номер" или "Логин" или "Почта" или “Лицевой счет” (По умолчанию выбрана форма авторизации по телефону)
-2.3. Форма ввода "Пароль"
-2.4. Чекбокс "Запомнить меня"
-2.5. Ссылка "Забыл пароль"
-2.6. Кнопка "Войти"
-2.7. Ссылка на ""Пользовательское соглашение
-2.8. Иконки соцсетей "В контакте", "Одноклассники", "Мой мир", "Google", "Яндекс" с возможностью авторизации
-2.9. Ссылка "Зарегистрироваться"
-3. В левой части:
-3.1. Логотип странцы "Личный кабинет Персональный помощник в цифровом мире Ростелекома"
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Система отображает форму «Авторизация», </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">которая содержит шапку, тело и подвал;
+2. Шапка содержит логотип компании;
+3. Тело делится по вертикали на две половины;
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Позитивная проверка авторизации с валидными данными</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4. В правой части тела:
+4.1.1. Меню выбора типа аутентификации
+4.1.2. Таб выбора аутентификации по номеру, "Номер"
+4.1.3. Таб выбора аутентификации по логину и паролю, "Почта"
+4.1.4. Таб выбора аутентификации по почте и паролю, "Логин"
+4.1.5. Таб выбора аутентификации по лицевому счету и паролю, “Лицевой счет”
+4.2. Форма ввода "Номер" или "Логин" или "Почта" или “Лицевой счет” (По умолчанию выбрана форма авторизации по телефону)
+4.3. Форма ввода "Пароль"
+4.4. Чекбокс "Запомнить меня" (отмечен по умолчанию)
+4.5. Ссылка "Забыл пароль"
+4.6. Кнопка "Войти"
+4.7. Ссылка на "Пользовательское соглашение
+4.8. Иконки соцсетей "В контакте", "Одноклассники", "Мой мир", "Google", "Яндекс" с возможностью авторизации
+4.9. Ссылка "Зарегистрироваться"
+5. В левой части тела:
+5.1. Логотип страницы "Личный кабинет Персональный помощник в цифровом мире Ростелекома";
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ввести данные зарегистрированного пользователя;
-2. Нажать кнопку "Войти"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">6. Подвал содержит:
+6.1. Иконку копирайта, год, название компании, возрастное ограничение;
+6.2. Ссылки «Согласие на обработку файлов Cookies», «Пользовательское соглашение», «Политика конфиденциальности» и телефон службы поддержки.
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Почта"</t>
@@ -350,9 +512,6 @@
   </si>
   <si>
     <t xml:space="preserve">Таб "Почта" активировался, в первом поле отобразился введенный адрес электронной почты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-013</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Телефон"</t>
@@ -369,33 +528,167 @@
     <t xml:space="preserve">Таб "Телефон" активировался, в первом поле отобразился введенный номер телефона</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Логин"</t>
   </si>
   <si>
     <t xml:space="preserve">Маша</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Нажать на таб "Почта";
-2. Ввести в первое тестовые данные;
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Нажать на таб "Почта";
+2. Ввести в первое </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">поле</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> тестовые данные;
 3. Нажать на поле "Пароль"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Таб "Логин" активировался, в первом поле отобразился введенный логин</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Лицевой счет"</t>
   </si>
   <si>
     <t xml:space="preserve">Таб "Лицевой счет" активировался, в первом поле отобразился введенный лицевой счет</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-016</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Нажать на ссылку  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Пользовательское соглашение"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Нажать на ссылку  «Согласие на обработку файлов Cookies»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Нажать на ссылку  «Политика конфиденциальности»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка, что иконки соцсетей ведут на страницы соответствующих соцсетей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на иконку "В контакте";
+2. Повторить шаг 1 для остальных соцсетей"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Совершен переход на страницу соцсети "В контакте" с формой согласия на использование данных для авторизации в Ростелеком либо с формой авторизации в сети </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"В контакте"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Позитивная проверка авторизации с валидными данными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ввести данные зарегистрированного пользователя;
+2. Нажать кнопку "Войти"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться с невалидным логином и валидным паролем</t>
@@ -416,10 +709,26 @@
 3. Повторить шаги 1-2 для других пунктов тестовых данных</t>
   </si>
   <si>
-    <t xml:space="preserve">Отображена ошибка "Неверный логин или пароль"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-017</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Отображена ошибка "Неверный логин или пароль", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">элемент "Забыл пароль" перекрасился в оранжевый цвет.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться с валидным логином и невалидным паролем</t>
@@ -430,14 +739,14 @@
   </si>
   <si>
     <t xml:space="preserve">1. Ввести в первое поле тестовые данные из пункта 1;
-2. Ввести в поле "Пароль" тестовые данные из пункта 2;
+2. Ввести в поле "Пароль" тестовые данные из пункта 2
 </t>
   </si>
   <si>
-    <t xml:space="preserve">RT-018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Форма Восстановление пароля</t>
+    <t xml:space="preserve">RTCP-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма «Восстановление пароля»</t>
   </si>
   <si>
     <t xml:space="preserve">Позитивная проверка смены пароля с помощью ссылки "Забыл пароль"</t>
@@ -452,16 +761,13 @@
 3. Пройти капчу;
 4. Нажать на кнопку "Продолжить";
 5. Ввести код из сообщения;
-6. Ввести новый пороль из тестовых данных в поля "Пароль" и "Подтверждение пароля";
+6. Ввести новый пароль из тестовых данных в поля "Пароль" и "Подтверждение пароля";
 7. Нажать на кнопку "Сохранить";
-8. Ввести новый пароль в поле "Пароль";
+8. Ввести новый пароль из тестовых данных в поле "Пароль";
 9. Нажать кнопку "Войти"</t>
   </si>
   <si>
     <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя с указанными данными</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-019</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться со старым паролем</t>
@@ -480,7 +786,10 @@
 2. Нажать кнопку "Войти"</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-020</t>
+    <t xml:space="preserve">Отображена ошибка "Неверный логин или пароль"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма Восстановление пароля</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка невозможности сменить пароль без заполнения капчи</t>
@@ -504,7 +813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -561,7 +870,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -621,7 +950,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,6 +983,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,6 +997,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -743,32 +1080,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G984"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="50.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
@@ -805,7 +1142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="280.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -828,432 +1165,244 @@
     </row>
     <row r="8" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
+      <c r="A10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>47</v>
+      <c r="A15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="458.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>123456789123</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1"/>
@@ -5047,47 +5196,22 @@
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B975" s="1"/>
-      <c r="C975" s="1"/>
-    </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-    </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B977" s="1"/>
-      <c r="C977" s="1"/>
-    </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B978" s="1"/>
-      <c r="C978" s="1"/>
-    </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B979" s="1"/>
-      <c r="C979" s="1"/>
-    </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B980" s="1"/>
-      <c r="C980" s="1"/>
-    </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B981" s="1"/>
-      <c r="C981" s="1"/>
-    </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B982" s="1"/>
-      <c r="C982" s="1"/>
-    </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-    </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D8" r:id="rId2" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
@@ -5099,16 +5223,6 @@
     <hyperlink ref="D14" r:id="rId8" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D15" r:id="rId9" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D16" r:id="rId10" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D17" r:id="rId11" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D18" r:id="rId12" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D19" r:id="rId13" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D20" r:id="rId14" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D21" r:id="rId15" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D22" r:id="rId16" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D23" r:id="rId17" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D24" r:id="rId18" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D25" r:id="rId19" display="1. Пройден тест-кейс RT-002 &quot;Регистрация пользователя с валидными данными&quot;;&#10;2. Пройден тест-кейс RT-016 &quot;Позитивная проверка смены пароля с помощью ссылки &quot;Забыл пароль&quot;;&#10;3. Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D26" r:id="rId20" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5118,4 +5232,520 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A5:G18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="63.08"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="394.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>123456789123</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D7" r:id="rId2" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D8" r:id="rId3" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D9" r:id="rId4" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D10" r:id="rId5" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D11" r:id="rId6" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D12" r:id="rId7" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D13" r:id="rId8" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D14" r:id="rId9" display="https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D15" r:id="rId10" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D16" r:id="rId11" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D17" r:id="rId12" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A5:G13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.79"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D7" r:id="rId2" display="1. Пройден тест-кейс RT-002 &quot;Регистрация пользователя с валидными данными&quot;;&#10;2. Пройден тест-кейс RT-016 &quot;Позитивная проверка смены пароля с помощью ссылки &quot;Забыл пароль&quot;;&#10;3. Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D8" r:id="rId3" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Test_cases.xlsx
+++ b/Test_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Регистрация" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Авторизация" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Смена пароля" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Восстановление пароля" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
   <si>
     <r>
       <rPr>
@@ -92,9 +92,9 @@
 4. Правая часть тела содержит:
 4.1. Поле ввода имени (обязательное);
 4.2. Поле ввода фамилии (обязательное);
-4.3. Поле выбора региона (обязательное);
+4.3. Поле выбора региона (обязательное) (по умолчанию «Москва»);
 4.4. Поле ввода email или мобильного телефона(обязательное);
-4.5. Поле ввода пароля(обязательное);
+4.5. Поле ввода пароля(обязательное) (есть иконка «Глаз»);
 4.6. Поле подтверждения пароля(обязательное);
 4.7. Кнопку "Зарегистрироваться";
 4.8. Ссылку на пользовательское соглашение;
@@ -104,183 +104,49 @@
 6.2. Ссылки «Согласие на обработку файлов Cookies», «Пользовательское соглашение», «Политика конфиденциальности» и телефон службы поддержки.</t>
   </si>
   <si>
+    <t xml:space="preserve">RTR-002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка, что ссылка "Пользовательское соглашение" ведет на соответствующую страницу</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
-2. Нажать на ссылку  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Пользовательское соглашение"</t>
-    </r>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Нажать на ссылку  "Пользовательское соглашение"</t>
   </si>
   <si>
     <t xml:space="preserve">Совершен переход на страницу "Пользовательское соглашение"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Проверка, что ссылка </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">«Согласие на обработку файлов Cookies»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ведет на соответствующую страницу</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Нажать на ссылку «Зарегистрироваться»;
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Нажать на ссылку  «Согласие на обработку файлов Cookies»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Совершен переход на страницу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">«Согласие на обработку файлов Cookies»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Проверка, что ссылка </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">«Политика конфиденциальности»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ведет на соответствующую страницу</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Нажать на ссылку «Зарегистрироваться»;
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Нажать на ссылку  «Политика конфиденциальности»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Совершен переход на страницу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">«Политика конфиденциальности»</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Регистрация пользователя с валидными данными</t>
+    <t xml:space="preserve">RTR-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка, что ссылка «Согласие на обработку файлов Cookies» ведет на соответствующую страницу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку «Зарегистрироваться»;
+2. Нажать на ссылку  «Согласие на обработку файлов Cookies»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Совершен переход на страницу «Согласие на обработку файлов Cookies»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка, что ссылка «Политика конфиденциальности» ведет на соответствующую страницу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку «Зарегистрироваться»;
+2. Нажать на ссылку  «Политика конфиденциальности»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Совершен переход на страницу «Политика конфиденциальности»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрация пользователя с валидными данными, используя email</t>
   </si>
   <si>
     <t xml:space="preserve">Имя: Глафира
@@ -294,10 +160,20 @@
     <t xml:space="preserve">1. Убедиться, что пользователя с указанной почтой в системе не существует;
 2. Нажать на ссылку "Зарегистрироваться";
 3. Ввести тестовые данные;
-4. Нажать кнопку "Зарегистрироваться"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя с указанными тестовыми данными</t>
+4. Нажать кнопку "Зарегистрироваться";
+5. Ввести присланный на почту код;
+6. Нажать кнопку «Продолжить»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Пользователя с указанной почтой нет в БД;
+2. Произошел переход на страницу с формой регистрации;
+3. Тестовые данные отобразились в соответствующих полях, сообщений об ошибках ввода данных нет;
+4. Произошел переход на страницу ввода кода, содержащую маскированную почту, поле для ввода кода, кнопку «Получить код повторно»;
+5. Введенный код отобразился в поле для ввода кода;
+6. Произошел переход на страницу личного кабинета пользователя с указанными тестовыми данными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-006</t>
   </si>
   <si>
     <t xml:space="preserve">Позитивная проверка поля "Имя" формы регистрации</t>
@@ -320,6 +196,9 @@
     <t xml:space="preserve">Поле "Имя" приняло введенные данные (ошибка не отобразилась)</t>
   </si>
   <si>
+    <t xml:space="preserve">RTR-007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Позитивная проверка поля "Фамилия" формы регистрации</t>
   </si>
   <si>
@@ -338,6 +217,9 @@
   </si>
   <si>
     <t xml:space="preserve">Поле "Фамилия" приняло введенные данные (ошибка не отобразилась)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-008</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка регистрации с несовпадающим паролем в поле "Подтверждение пароля".</t>
@@ -359,6 +241,9 @@
   </si>
   <si>
     <t xml:space="preserve">Отображена ошибка о несовпадении пароля в поле "Подтверждение пароля"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-009</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка поля "Имя" формы регистрации</t>
@@ -418,12 +303,15 @@
     <t xml:space="preserve">Отображена ошибка о том, что в поле "Имя" введены невалидные данные</t>
   </si>
   <si>
+    <t xml:space="preserve">RTR-010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Негативная проверка поля "Фамилия" формы регистрации</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Нажать на ссылку ""Зарегистрироваться";
-2. Ввести пункт 1 тестовых данных в поле ""Фамилия"" ;
-3. Нажать на поле ""Имя"";
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести пункт 1 тестовых данных в поле "Фамилия" ;
+3. Нажать на поле "Имя";
 4. Повторить шаги 1-3 для следующих пунктов тестовых данных"</t>
   </si>
   <si>
@@ -439,37 +327,10 @@
     <t xml:space="preserve">Проверка UI страницы с формой авторизации</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Система отображает форму «Авторизация», </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">которая содержит шапку, тело и подвал;
+    <t xml:space="preserve">1. Система отображает форму «Авторизация», которая содержит шапку, тело и подвал;
 2. Шапка содержит логотип компании;
 3. Тело делится по вертикали на две половины;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4. В правой части тела:
+4. В правой части тела:
 4.1.1. Меню выбора типа аутентификации
 4.1.2. Таб выбора аутентификации по номеру, "Номер"
 4.1.3. Таб выбора аутентификации по логину и паролю, "Почта"
@@ -485,20 +346,13 @@
 4.9. Ссылка "Зарегистрироваться"
 5. В левой части тела:
 5.1. Логотип страницы "Личный кабинет Персональный помощник в цифровом мире Ростелекома";
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">6. Подвал содержит:
+6. Подвал содержит:
 6.1. Иконку копирайта, год, название компании, возрастное ограничение;
 6.2. Ссылки «Согласие на обработку файлов Cookies», «Пользовательское соглашение», «Политика конфиденциальности» и телефон службы поддержки.
 </t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RTA-002</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Почта"</t>
@@ -512,6 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve">Таб "Почта" активировался, в первом поле отобразился введенный адрес электронной почты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTA-003</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Телефон"</t>
@@ -528,115 +385,42 @@
     <t xml:space="preserve">Таб "Телефон" активировался, в первом поле отобразился введенный номер телефона</t>
   </si>
   <si>
+    <t xml:space="preserve">RTA-004</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Логин"</t>
   </si>
   <si>
     <t xml:space="preserve">Маша</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Нажать на таб "Почта";
-2. Ввести в первое </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">поле</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> тестовые данные;
+    <t xml:space="preserve">1. Нажать на таб "Почта";
+2. Ввести в первое поле тестовые данные;
 3. Нажать на поле "Пароль"</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Таб "Логин" активировался, в первом поле отобразился введенный логин</t>
   </si>
   <si>
+    <t xml:space="preserve">RTA-005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка автоматической активации таба "Лицевой счет"</t>
   </si>
   <si>
     <t xml:space="preserve">Таб "Лицевой счет" активировался, в первом поле отобразился введенный лицевой счет</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Нажать на ссылку  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Пользовательское соглашение"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Нажать на ссылку  «Согласие на обработку файлов Cookies»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Нажать на ссылку  «Политика конфиденциальности»</t>
-    </r>
+    <t xml:space="preserve">1. Нажать на ссылку  "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку  «Согласие на обработку файлов Cookies»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку  «Политика конфиденциальности»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTA-009</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка, что иконки соцсетей ведут на страницы соответствующих соцсетей</t>
@@ -646,35 +430,10 @@
 2. Повторить шаг 1 для остальных соцсетей"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Совершен переход на страницу соцсети "В контакте" с формой согласия на использование данных для авторизации в Ростелеком либо с формой авторизации в сети </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"В контакте"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
+    <t xml:space="preserve">Совершен переход на страницу соцсети "В контакте" с формой согласия на использование данных для авторизации в Ростелеком либо с формой авторизации в сети "В контакте".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTA-010</t>
   </si>
   <si>
     <t xml:space="preserve">Позитивная проверка авторизации с валидными данными</t>
@@ -689,6 +448,9 @@
   </si>
   <si>
     <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTA-011</t>
   </si>
   <si>
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться с невалидным логином и валидным паролем</t>
@@ -731,6 +493,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">RTA-012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться с валидным логином и невалидным паролем</t>
   </si>
   <si>
@@ -749,7 +514,7 @@
     <t xml:space="preserve">Форма «Восстановление пароля»</t>
   </si>
   <si>
-    <t xml:space="preserve">Позитивная проверка смены пароля с помощью ссылки "Забыл пароль"</t>
+    <t xml:space="preserve">Позитивная проверка восстановления пароля с помощью ссылки "Забыл пароль"</t>
   </si>
   <si>
     <t xml:space="preserve">Почта: eodav@mailto.plus
@@ -770,6 +535,9 @@
     <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя с указанными данными</t>
   </si>
   <si>
+    <t xml:space="preserve">RTCP-002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться со старым паролем</t>
   </si>
   <si>
@@ -789,10 +557,13 @@
     <t xml:space="preserve">Отображена ошибка "Неверный логин или пароль"</t>
   </si>
   <si>
+    <t xml:space="preserve">RTCP-003</t>
+  </si>
+  <si>
     <t xml:space="preserve">Форма Восстановление пароля</t>
   </si>
   <si>
-    <t xml:space="preserve">Негативная проверка невозможности сменить пароль без заполнения капчи</t>
+    <t xml:space="preserve">Негативная проверка невозможности восстановить пароль без заполнения капчи</t>
   </si>
   <si>
     <t xml:space="preserve">Почта: eodav@mailto.plus</t>
@@ -813,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -870,22 +641,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -950,12 +708,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,7 +745,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1082,11 +844,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
@@ -1113,255 +875,255 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="280.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="306.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>26</v>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>34</v>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>38</v>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>42</v>
+      <c r="E15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>45</v>
+      <c r="E16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,315 +5003,315 @@
   </sheetPr>
   <dimension ref="A5:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="63.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="63.09"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="394.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>49</v>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>53</v>
+      <c r="E7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>61</v>
+      <c r="E9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="10" t="n">
         <v>123456789123</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>63</v>
+      <c r="F10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>69</v>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="A15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>73</v>
+      <c r="E15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>78</v>
+      <c r="A16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>78</v>
+      <c r="A17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5561,7 +5323,7 @@
     <hyperlink ref="D11" r:id="rId6" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D12" r:id="rId7" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D13" r:id="rId8" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D14" r:id="rId9" display="https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D14" r:id="rId9" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D15" r:id="rId10" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D16" r:id="rId11" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D17" r:id="rId12" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
@@ -5583,156 +5345,156 @@
   </sheetPr>
   <dimension ref="A5:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.79"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>87</v>
+      <c r="A6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>92</v>
+      <c r="A7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>97</v>
+      <c r="E8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Test_cases.xlsx
+++ b/Test_cases.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
   <si>
     <r>
       <rPr>
@@ -71,6 +71,12 @@
     <t xml:space="preserve">Ожидаемый результат</t>
   </si>
   <si>
+    <t xml:space="preserve">Постусловия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требования</t>
+  </si>
+  <si>
     <t xml:space="preserve">RTR-001</t>
   </si>
   <si>
@@ -146,20 +152,16 @@
     <t xml:space="preserve">RTR-005</t>
   </si>
   <si>
-    <t xml:space="preserve">Регистрация пользователя с валидными данными, используя email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя: Глафира
-Фамилия: Потапова
-Регион: Москва
-Email: eodav@mailto.plus
-Пароль: balagaN_35
+    <t xml:space="preserve">Регистрация пользователя с валидными данными по email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Убедиться, что пользователя с указанной почтой в системе не существует;
+    <t xml:space="preserve">1. Убедиться, что в БД нет почты, которую предполагается ввести в форму регистрации;
 2. Нажать на ссылку "Зарегистрироваться";
-3. Ввести тестовые данные;
+3. Ввести валидные данные;
 4. Нажать кнопку "Зарегистрироваться";
 5. Ввести присланный на почту код;
 6. Нажать кнопку «Продолжить»</t>
@@ -167,24 +169,64 @@
   <si>
     <t xml:space="preserve">1. Пользователя с указанной почтой нет в БД;
 2. Произошел переход на страницу с формой регистрации;
-3. Тестовые данные отобразились в соответствующих полях, сообщений об ошибках ввода данных нет;
+3. Введенные данные отобразились в соответствующих полях, сообщений об ошибках ввода данных нет;
 4. Произошел переход на страницу ввода кода, содержащую маскированную почту, поле для ввода кода, кнопку «Получить код повторно»;
 5. Введенный код отобразился в поле для ввода кода;
+6. Произошел переход на страницу личного кабинета пользователя с введенными данными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить созданную УЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрация пользователя с валидными данными по номеру телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Убедиться, что в БД нет номера телефона, который предполагается ввести в форму регистрации;
+2. Нажать на ссылку "Зарегистрироваться";
+3. Ввести валидные данные;
+4. Нажать кнопку "Зарегистрироваться";
+5. Ввести присланный в SMS код;
+6. Нажать кнопку «Продолжить»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Пользователя с указанным номером телефона нет в БД;
+2. Произошел переход на страницу с формой регистрации;
+3. Введенные данные отобразились в соответствующих полях, сообщений об ошибках ввода данных нет;
+4. Произошел переход на страницу ввода кода, содержащую маскированный номер телефона, поле для ввода кода, кнопку «Получить код повторно»;
+5. Введенный код отобразился в поле для ввода кода;
 6. Произошел переход на страницу личного кабинета пользователя с указанными тестовыми данными</t>
   </si>
   <si>
-    <t xml:space="preserve">RTR-006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Позитивная проверка поля "Имя" формы регистрации</t>
+    <t xml:space="preserve">RTR-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позитивная проверка: регистрация по номеру телефона, который есть в БД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в форму регистрации валидные данные, в поле «E-mail или мобильный телефон» ввести номер телефона, который есть в БД.
+4. Ввести присланный в SMS код;
+5. Нажать кнопку «Продолжить»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя с указанными тестовыми данными. Номер телефона отвязался от прежней УЗ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позитивная проверка поля "Имя" </t>
   </si>
   <si>
     <t xml:space="preserve">1. Фу
 2. Ина
 3. Валентина
 4.  Анна-Елена
-5. Абвгдыовпжладлорпавукенгшщлор
-6. Абвгдыовпжладлорпавукенгшщлорп</t>
+5. Абвгдыовпжладлорпавукенгшщлор (29 символов)
+6. Абвгдыовпжладлорпавукенгшщлорп (30 символов)</t>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
@@ -196,10 +238,10 @@
     <t xml:space="preserve">Поле "Имя" приняло введенные данные (ошибка не отобразилась)</t>
   </si>
   <si>
-    <t xml:space="preserve">RTR-007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Позитивная проверка поля "Фамилия" формы регистрации</t>
+    <t xml:space="preserve">RTR-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позитивная проверка поля "Фамилия" </t>
   </si>
   <si>
     <t xml:space="preserve">1. Фу
@@ -219,34 +261,39 @@
     <t xml:space="preserve">Поле "Фамилия" приняло введенные данные (ошибка не отобразилась)</t>
   </si>
   <si>
-    <t xml:space="preserve">RTR-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Негативная проверка регистрации с несовпадающим паролем в поле "Подтверждение пароля".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя: Глафира
-Фамилия: Потапова
-Регион: Москва
-Email: odav@mailto.plus
-Пароль: balagaN_00
-Невалидный пароль: balagaN_00
-</t>
+    <t xml:space="preserve">RTR-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позитивная проверка поля "Регион" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на стрелочку выпадающего списка;
+2. Ввести несколько символов в поле «Регион»;
+3. Нажать на название одного из регионов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. В выпадающем списке отобразился список регионов, доступных для выбора;
+2. Отобразились названия регионов, в которых встречается введенное буквосочетание, либо сообщение «Не найдено», если таковых нет;
+3. Название региона отобразилось в поле «Регион»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка регистрации с незаполненными полями</t>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
-2. Ввести тестовые данные: имя, фамилию, регион, email, пароль;
-3. Ввести невалидный пароль в поле "Подтверждение пароля";
-3. Нажать кнопку "Зарегистрироваться"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отображена ошибка о несовпадении пароля в поле "Подтверждение пароля"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTR-009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Негативная проверка поля "Имя" формы регистрации</t>
+2. Нажать кнопку «Продолжить»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под пустыми полями отображена ошибка об обязательности заполнения этих полей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка поля "Имя" </t>
   </si>
   <si>
     <r>
@@ -287,8 +334,8 @@
       <t xml:space="preserve">8. صسغذئآ
 9. ☺☺☺
 10. !!!
-11. &lt;script&gt;alert("П!")&lt;/script&gt;
-12. &lt;SCRIPT&gt;alert("П!")&lt;/SCRIPT&gt;
+11. &lt;script&gt;alert("O!")&lt;/script&gt;
+12. &lt;SCRIPT&gt;alert("O!")&lt;/SCRIPT&gt;
 13. drop table Users
 </t>
     </r>
@@ -300,13 +347,13 @@
 4. Повторить шаги 1-3 для следующих пунктов тестовых данных"</t>
   </si>
   <si>
-    <t xml:space="preserve">Отображена ошибка о том, что в поле "Имя" введены невалидные данные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTR-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Негативная проверка поля "Фамилия" формы регистрации</t>
+    <t xml:space="preserve">Отображена ошибка «Необходимо заполнить поле кириллицей. От 2 до 30 символов.»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка поля "Фамилия"</t>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
@@ -315,7 +362,515 @@
 4. Повторить шаги 1-3 для следующих пунктов тестовых данных"</t>
   </si>
   <si>
-    <t xml:space="preserve">Отображена ошибка о том, что в поле "Фамилия" введены невалидные данные</t>
+    <t xml:space="preserve">RTR-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка поля "пароль": менее 8 символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в поле «Пароль» латиницей менее 8 символов;
+3. Нажать на поле «Подтверждение пароля»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Отображено сообщение «</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Длина пароля должна быть не менее 8 символов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка поля "пароль": более 20 символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в поле «Пароль» латиницей более 20 символов;
+3. Нажать на поле «Подтверждение пароля»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Отображено сообщение «Длина пароля должна быть</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">максимум 20 символов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка поля "пароль": не введены заглавные буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в поле «Пароль» латиницей от 8 до 20 строчных символов;
+3. Нажать на поле «Подтверждение пароля»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображено сообщение «Пароль должен содержать хотя бы одну заглавную букву»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка поля "пароль": присутствуют не латинские буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в поле «Пароль» от 8 до 20 символов, должна присутствовать хотя бы одна не латинская буква;
+3. Нажать на поле «Подтверждение пароля»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображено сообщение «Пароль должен содержать только латинские буквы»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка регистрации с несовпадающим паролем в поле "Подтверждение пароля".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести валидные данные незарегистрированного пользователя: имя, фамилию, регион, email, пароль;
+3. Ввести несовпадающий пароль в поле "Подтверждение пароля";
+3. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображена ошибка о несовпадении пароля в поле "Подтверждение пароля"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка: попытка регистрации по email, который есть в БД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести во все поля кроме поля «E-mail или мобильный телефон» валидные данные незарегистрированного пользователя;
+3. В поле «E-mail или мобильный телефон» ввести email, который есть в БД;
+4. Нажать кнопку "Зарегистрироваться"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Произошел переход на страницу Авторизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Негативная проверка: ввод неправильного кода из SMS или email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в форму регистрации валидные данные незарегистрированного пользователя;
+3. Нажать кнопку "Зарегистрироваться";
+4. Ввести неверный код;
+5. Нажать кнопку «Продолжить»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Отображена ошибка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Неверный код. Повторите попытку</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Негативная проверка: в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ремя жизни кода 2 минуты</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в форму регистрации валидные данные незарегистрированного пользователя;
+3. Нажать кнопку "Зарегистрироваться";
+4. Убедиться, что код пришел;
+5. Подождать 2 минуты;
+6. Ввести код;
+7. Нажать кнопку «Продолжить»</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Отображена ошибка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Время жизни кода истекло</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Негативная проверка: п</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">осле нажатия кнопки "Получить код повторно" — старый код не работает</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в форму регистрации валидные данные незарегистрированного пользователя;
+3. Нажать кнопку "Зарегистрироваться";
+4. Запомнить присланный код;
+5. Нажать кнопку «Получить код повторно»;
+6. Убедиться, что второй код пришел;
+7. Ввести первый код;
+5. Нажать кнопку «Продолжить»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Негативная проверка: к</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">нопка "Получить код повторно" работает только 5 раз </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в форму регистрации валидные данные незарегистрированного пользователя;
+3. Нажать кнопку "Зарегистрироваться";
+4. Нажать кнопку «Получить код повторно» 5 раз;
+5. Убедиться, что пришли 5 кодов;
+6. Нажать кнопку «Получить код повторно»
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Отображена ошибка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Не получили код? Обратитесь в службу поддержки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Негативная проверка: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">в поле ввода кода ограничение на ввод только цифр</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести валидные данные незарегистрированного пользователя;
+3. Нажать кнопку "Зарегистрироваться";
+4. В поле ввода кода ввести любые символы кроме цифр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В поле ввода кода не отображаются введенные символы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTR-025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Негативная проверка: н</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">евозможность регистрации с почтой типа actualuser+1@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Нажать на ссылку "Зарегистрироваться";
+2. Ввести в форму регистрации валидные данные незарегистрированного пользователя, в поле «E-mail или мобильный телефон» ввести email типа actualuser+1@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, где actualuser@gmail.com - email существующего пользователя;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Нажать кнопку "Зарегистрироваться"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Отображена ошибка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">о недопустимости данного формата email</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">RTA-001</t>
@@ -439,10 +994,6 @@
     <t xml:space="preserve">Позитивная проверка авторизации с валидными данными</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Ввести данные зарегистрированного пользователя;
 2. Нажать кнопку "Войти"</t>
   </si>
@@ -456,7 +1007,7 @@
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться с невалидным логином и валидным паролем</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;
+    <t xml:space="preserve">1. Создана УЗ;
 2. Открыта страница авторизации https://b2c.passport.rt.ru</t>
   </si>
   <si>
@@ -467,7 +1018,7 @@
   </si>
   <si>
     <t xml:space="preserve">1. Ввести в первое поле тестовые данные из пункта 1;
-2. Ввести пароль существующего пользователя "balagaN_35";
+2. Ввести валидный пароль созданной УЗ;
 3. Повторить шаги 1-2 для других пунктов тестовых данных</t>
   </si>
   <si>
@@ -499,12 +1050,8 @@
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться с валидным логином и невалидным паролем</t>
   </si>
   <si>
-    <t xml:space="preserve">1. eodav@mailto.plus
-2. balagaN_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ввести в первое поле тестовые данные из пункта 1;
-2. Ввести в поле "Пароль" тестовые данные из пункта 2
+    <t xml:space="preserve">1. Ввести в первое поле логин созданной УЗ;
+2. Ввести в поле "Пароль" невалидный для созданной УЗ пароль
 </t>
   </si>
   <si>
@@ -517,19 +1064,49 @@
     <t xml:space="preserve">Позитивная проверка восстановления пароля с помощью ссылки "Забыл пароль"</t>
   </si>
   <si>
-    <t xml:space="preserve">Почта: eodav@mailto.plus
-Новый пароль: balagaN_00</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Создана УЗ;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. Открыта страница авторизации </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://b2c.passport.rt.ru</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1. Нажать на ссылку "Забыл пароль";
-2. Ввести адрес электронной почты из тестовых данных;
+2. Ввести адрес электронной почты привязанной к созданной УЗ;
 3. Пройти капчу;
 4. Нажать на кнопку "Продолжить";
 5. Ввести код из сообщения;
-6. Ввести новый пароль из тестовых данных в поля "Пароль" и "Подтверждение пароля";
+6. Ввести новый пароль в поля "Пароль" и "Подтверждение пароля";
 7. Нажать на кнопку "Сохранить";
-8. Ввести новый пароль из тестовых данных в поле "Пароль";
-9. Нажать кнопку "Войти"</t>
+8. Ввести логин и новый пароль в соответствующие поля;
+9. Нажать кнопку «Войти»</t>
   </si>
   <si>
     <t xml:space="preserve">Произошел переход на страницу личного кабинета пользователя с указанными данными</t>
@@ -541,17 +1118,49 @@
     <t xml:space="preserve">Негативная проверка невозможности авторизоваться со старым паролем</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Пройден тест-кейс RT-002 "Регистрация пользователя с валидными данными";
-2. Пройден тест-кейс RT-016 "Позитивная проверка смены пароля с помощью ссылки "Забыл пароль";
-3. Открыта страница авторизации https://b2c.passport.rt.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Почта: eodav@mailto.plus
-Пароль: balagaN_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ввести тестовые данные в форму;
-2. Нажать кнопку "Войти"</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Пройден тест-кейс </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">RTCP-001;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. Открыта страница авторизации </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://b2c.passport.rt.ru</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ввести адрес электронной почты привязанной к УЗ;
+2. В поле «Пароль» ввести старый пароль</t>
   </si>
   <si>
     <t xml:space="preserve">Отображена ошибка "Неверный логин или пароль"</t>
@@ -566,15 +1175,79 @@
     <t xml:space="preserve">Негативная проверка невозможности восстановить пароль без заполнения капчи</t>
   </si>
   <si>
-    <t xml:space="preserve">Почта: eodav@mailto.plus</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Нажать на ссылку "Забыл пароль";
-2. Ввести в поле почту зарегистрированного пользователя из тестовых данных;
-3. Нажать на кнопку "Продолжить"</t>
+2. Ввести адрес электронной почты привязанной к созданной УЗ;
+4. Нажать на кнопку "Продолжить"</t>
   </si>
   <si>
     <t xml:space="preserve">Отображена ошибка "Неверный логин или текст с картинки"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTCP-004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Негативная проверка: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">выход из УЗ на всех браузерах при смене пароля</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Создана УЗ; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. Открыта страница авторизации </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://b2c.passport.rt.ru</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Войти в УЗ в первом браузере;
+2. Нажать кнопку «Восстановить пароль» и поменять пароль во втором браузере;
+3. Обновить страницу в первом браузере</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Произошел переход на страницу авторизации в первом браузере. Произошел переход на страницу личного кабинета пользователя с указанными данными во втором браузере.</t>
   </si>
 </sst>
 </file>
@@ -584,7 +1257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -631,11 +1304,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -648,9 +1328,71 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -708,7 +1450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,6 +1471,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -737,12 +1483,24 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -753,15 +1511,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -842,20 +1604,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:I989"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="1" sqref="D14:D15 F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="50.43"/>
   </cols>
   <sheetData>
@@ -873,7 +1635,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
@@ -903,4073 +1665,4440 @@
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="306.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="167.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="90.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="154.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>52</v>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="258.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="90.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="90.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="103.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
     </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
     </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
     </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
     </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
     </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
     </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
     </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
     </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
     </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
     </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
     </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
     </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
     </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
     </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
     </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
     </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
     </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
     </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
     </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
     </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
     </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
     </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
     </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
     </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
     </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
     </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
     </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
     </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
     </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
     </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
     </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
     </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
     </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
     </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
     </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
     </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
     </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
     </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
     </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
     </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
     </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
     </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
     </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
     </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
     </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
     </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
     </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
     </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
     </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
     </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
     </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
     </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
     </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
     </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
     </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
     </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
     </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
     </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
     </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
     </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
     </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
     </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
     </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
     </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
     </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
     </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
     </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
     </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
     </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
     </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
     </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
     </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
     </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
     </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
     </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
     </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
     </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
     </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
     </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
     </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
     </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
     </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
     </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
     </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
     </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
     </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
     </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
     </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
     </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
     </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
     </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
     </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
     </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
     </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
     </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
     </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
     </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
     </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
     </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
     </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
     </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
     </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
     </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
     </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
     </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
     </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
     </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
     </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
     </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
     </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
     </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
     </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
     </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
     </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
     </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
     </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
     </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
     </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
     </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
     </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
     </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
     </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
     </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
     </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
     </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
     </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
     </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
     </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
     </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
     </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
     </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
     </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
     </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
     </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
     </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
     </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
     </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
     </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
     </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
     </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
     </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
     </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
     </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
     </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
     </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
     </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
     </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B975" s="1"/>
+      <c r="C975" s="1"/>
+    </row>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B976" s="1"/>
+      <c r="C976" s="1"/>
+    </row>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B977" s="1"/>
+      <c r="C977" s="1"/>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B978" s="1"/>
+      <c r="C978" s="1"/>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B979" s="1"/>
+      <c r="C979" s="1"/>
+    </row>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B980" s="1"/>
+      <c r="C980" s="1"/>
+    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B981" s="1"/>
+      <c r="C981" s="1"/>
+    </row>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B982" s="1"/>
+      <c r="C982" s="1"/>
+    </row>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B983" s="1"/>
+      <c r="C983" s="1"/>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B984" s="1"/>
+      <c r="C984" s="1"/>
+    </row>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B985" s="1"/>
+      <c r="C985" s="1"/>
+    </row>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B986" s="1"/>
+      <c r="C986" s="1"/>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B987" s="1"/>
+      <c r="C987" s="1"/>
+    </row>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B988" s="1"/>
+      <c r="C988" s="1"/>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B989" s="1"/>
+      <c r="C989" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
@@ -4985,6 +6114,21 @@
     <hyperlink ref="D14" r:id="rId8" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D15" r:id="rId9" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
     <hyperlink ref="D16" r:id="rId10" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D17" r:id="rId11" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D18" r:id="rId12" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D19" r:id="rId13" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D20" r:id="rId14" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D21" r:id="rId15" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D22" r:id="rId16" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D23" r:id="rId17" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D24" r:id="rId18" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D25" r:id="rId19" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D26" r:id="rId20" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D27" r:id="rId21" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D28" r:id="rId22" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D29" r:id="rId23" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D30" r:id="rId24" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D31" r:id="rId25" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5001,332 +6145,339 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:G18"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="D14:D15 D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="63.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="63.1"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="52.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="12"/>
+    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="394.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>68</v>
+    <row r="7" customFormat="false" ht="394.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>73</v>
+      <c r="A9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="n">
+      <c r="A10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="n">
         <v>123456789123</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="6" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="6" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="90.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D7" r:id="rId2" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D8" r:id="rId3" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D9" r:id="rId4" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D10" r:id="rId5" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D11" r:id="rId6" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D12" r:id="rId7" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D13" r:id="rId8" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D14" r:id="rId9" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D15" r:id="rId10" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D16" r:id="rId11" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D17" r:id="rId12" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D7" r:id="rId1" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D8" r:id="rId2" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D9" r:id="rId3" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D10" r:id="rId4" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D11" r:id="rId5" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D12" r:id="rId6" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D13" r:id="rId7" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D14" r:id="rId8" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D15" r:id="rId9" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D16" r:id="rId10" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D17" r:id="rId11" display="1. Создана УЗ;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D18" r:id="rId12" display="1. Создана УЗ;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5343,164 +6494,153 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:G13"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.79"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="52.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="12"/>
+    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="6" t="s">
+    <row r="7" customFormat="false" ht="180.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="1. Пройден тест-кейс RT-002 Регистрация пользователя с валидными данными;&#10;2. Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D7" r:id="rId2" display="1. Пройден тест-кейс RT-002 &quot;Регистрация пользователя с валидными данными&quot;;&#10;2. Пройден тест-кейс RT-016 &quot;Позитивная проверка смены пароля с помощью ссылки &quot;Забыл пароль&quot;;&#10;3. Открыта страница авторизации https://b2c.passport.rt.ru"/>
-    <hyperlink ref="D8" r:id="rId3" display="Открыта страница авторизации https://b2c.passport.rt.ru"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://b2c.passport.rt.ru"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
